--- a/output/risk/KHM_osm_tc_CNRM-CM6-1-HR_risk.xlsx
+++ b/output/risk/KHM_osm_tc_CNRM-CM6-1-HR_risk.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:CG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,17 +438,422 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>W5_1</t>
+          <t>W5_1_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>W5_2</t>
+          <t>W5_1_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>W5_3</t>
+          <t>W5_1_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_7</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_9</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_8</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_9</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_7</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_8</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_9</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_5</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_6</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_7</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_8</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_9</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_5</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_6</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_7</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_8</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_9</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_5</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_6</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_7</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_8</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_9</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_12</t>
         </is>
       </c>
     </row>
@@ -459,13 +864,256 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379135.659034269</v>
+        <v>3871473.896591222</v>
       </c>
       <c r="C2" t="n">
-        <v>478777.882896081</v>
+        <v>4258621.286250344</v>
       </c>
       <c r="D2" t="n">
-        <v>406781.1517992065</v>
+        <v>5032916.065568588</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6310502.451443691</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6941559.614051841</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8203650.881055537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2593887.510716118</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2853269.344323948</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3372056.069752214</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4228046.096334441</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4650841.482682843</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5496455.313592253</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3100430.307311101</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3410473.33804221</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4030559.39950443</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5053701.400917094</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5559077.080788983</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6569809.974598829</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2077288.305898437</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2285011.596708101</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2700476.644261362</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3385987.509647365</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3724578.874238529</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4401780.069354788</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>612057.9933981794</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>673263.7927379974</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>795675.391417633</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>997654.5292390324</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1097421.075774597</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1296950.523473522</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>410078.8555767802</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>451085.6475227965</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>533102.8767870349</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>668430.0291927562</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>735271.5739631495</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>868958.3088761419</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4107277.636436219</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4518005.400079839</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5339460.927367085</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6694862.547391037</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7364356.14092282</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>8703318.86534412</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2751876.016412267</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3027056.279260813</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3577441.267600173</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4485567.936435323</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4934114.94502195</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5831233.424837467</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>8030285.18726168</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>8833313.705987845</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>10439370.74344018</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>13089364.85523653</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>14398315.68909584</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>17016169.52902894</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5380291.075465324</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>5918305.834676202</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>6994383.180883472</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>8769894.062400537</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>9646864.337526388</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>11400852.7155636</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>9079951.594472948</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>9987946.753920244</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>11803937.07281483</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>14800321.09899091</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>16280369.43274633</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>19240412.02073607</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>6083567.568296876</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>6691908.10127023</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>7908643.24673805</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>9916237.308927564</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>10907839.40801188</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>12891097.68570161</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>9187932.040681906</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>10106725.2447501</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>11944311.65288648</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>14976329.22631151</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>16473978.56573606</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>19469222.52194049</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>6155914.467256878</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>6771489.497189163</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>8002694.279698407</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>10034163.01791302</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>11037557.43064646</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>13044400.978758</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +1123,256 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284351.7442757018</v>
+        <v>2903605.422443416</v>
       </c>
       <c r="C3" t="n">
-        <v>359083.4121720607</v>
+        <v>3193965.964687757</v>
       </c>
       <c r="D3" t="n">
-        <v>305085.8638494049</v>
+        <v>3774687.049176441</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4732876.838582767</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5206169.710538882</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6152738.160791652</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1945415.633037089</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2139952.008242961</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2529042.05231416</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3171034.572250832</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3488131.112012132</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4122341.485194189</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2325322.730483326</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2557855.003531658</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3022919.549628323</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3790276.050687821</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4169307.810591737</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4927357.480949121</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1557966.229423828</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1713758.697531076</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2025357.483196022</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2539490.632235525</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2793434.155678897</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3301335.052016092</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>459043.4950486346</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>504947.8445534981</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>596756.543563225</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>748240.8969292743</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>823065.8068309482</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>972712.892605141</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>307559.1416825852</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>338314.2356420973</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>399827.1575902762</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>501322.5218945672</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>551453.6804723621</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>651718.7316571064</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3080458.227327164</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3388504.050059881</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4004595.695525314</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5021146.910543278</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5523267.105692117</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>6527489.14900809</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2063907.0123092</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2270292.20944561</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2683080.95070013</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3364175.952326492</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3700586.208766462</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4373425.068628101</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6022713.89044626</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>6624985.279490884</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>7829528.057580137</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>9817023.641427401</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>10798736.76682188</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>12762127.14677171</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4035218.306598993</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4438729.376007153</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>5245787.385662604</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6577420.546800404</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7235148.25314479</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>8550639.536672698</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>6809963.695854712</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>7490960.065440184</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>8852952.804611126</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>11100240.82424318</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>12210277.07455975</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>14430309.01555205</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4562675.676222658</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>5018931.075952673</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>5931482.435053537</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>7437177.981695673</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>8180879.556008907</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9668323.264276206</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>6890949.030511432</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>7580043.933562573</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>8958233.73966486</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>11232246.91973363</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>12355483.92430205</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>14601916.89145537</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>4616935.850442658</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>5078617.122891873</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>6002020.709773805</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>7525622.263434771</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>8278168.072984845</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>9783300.7340685</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +1382,256 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473919.5737928363</v>
+        <v>4839342.370739027</v>
       </c>
       <c r="C4" t="n">
-        <v>598472.3536201012</v>
+        <v>5323276.60781293</v>
       </c>
       <c r="D4" t="n">
-        <v>508476.4397490082</v>
+        <v>6291145.081960735</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7888128.064304614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8676949.517564801</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10254563.60131942</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3242359.388395148</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3566586.680404935</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4215070.087190268</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5285057.620418051</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5813551.853353553</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6870569.141990317</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3875537.884138876</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4263091.672552763</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5038199.249380539</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6317126.751146369</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6948846.350986231</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8212262.468248537</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2596610.382373048</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2856264.495885127</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3375595.805326703</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4232484.387059206</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4655723.59279816</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5502225.086693486</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>765072.4917477245</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>841579.7409224967</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>994594.2392720418</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1247068.161548791</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1371776.344718247</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1621188.154341902</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>512598.5694709753</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>563857.0594034955</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>666378.5959837936</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>835537.5364909453</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>919089.4674539366</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1086197.886095178</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5134097.045545273</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5647506.750099801</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6674326.159208857</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8368578.184238797</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>9205445.176153526</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>10879148.58168015</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3439845.020515334</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3783820.349076017</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4471801.584500217</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>5606959.920544155</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6167643.681277436</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7289041.781046835</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10037856.4840771</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>11041642.13248481</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>13049213.42930023</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>16361706.06904567</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>17997894.6113698</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>21270211.91128619</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6725363.844331656</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7397882.293345254</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>8742978.97610434</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>10962367.57800067</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>12058580.42190798</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>14251065.8944545</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>11349939.49309119</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>12484933.44240031</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>14754921.34101854</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>18500401.37373864</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>20350461.79093292</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>24050515.02592009</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>7604459.460371098</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>8364885.126587789</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>9885804.058422564</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>12395296.63615946</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>13634799.26001484</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>16113872.10712701</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>11484915.05085238</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>12633406.55593762</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>14930389.5661081</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>18720411.53288939</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>20592473.20717008</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>24336528.15242562</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>7694893.084071099</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>8464361.871486451</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>10003367.84962301</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>12542703.77239128</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>13796946.78830807</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>16305501.2234475</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,25 +1766,30 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>W3_23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W3_24</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W3_25</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W3_26</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W3_27</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>W3_28</t>
         </is>
@@ -663,85 +1802,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.961343577881433e-253</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.450983910423965e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25.72217951803717</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>73678.14514975897</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3825.893005033552</v>
       </c>
       <c r="G2" t="n">
-        <v>8050.348212513203</v>
+        <v>78211.11085390013</v>
       </c>
       <c r="H2" t="n">
-        <v>26633402.58171616</v>
+        <v>82400.45570943154</v>
       </c>
       <c r="I2" t="n">
-        <v>125666502.993764</v>
+        <v>74337.08421098819</v>
       </c>
       <c r="J2" t="n">
-        <v>178868070.3520588</v>
+        <v>58729.57026724392</v>
       </c>
       <c r="K2" t="n">
-        <v>266852136.90365</v>
+        <v>36328.39481192513</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>390921.2014671968</v>
       </c>
       <c r="M2" t="n">
-        <v>758470.7105521025</v>
+        <v>805501.2097933735</v>
       </c>
       <c r="N2" t="n">
-        <v>1771206.741281992</v>
+        <v>839819.3505061828</v>
       </c>
       <c r="O2" t="n">
-        <v>-647298.4466570006</v>
+        <v>90106.5845920327</v>
       </c>
       <c r="P2" t="n">
-        <v>-647298.4466570006</v>
+        <v>215925.3982405434</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.956250347626075e-07</v>
+        <v>32517.69929358353</v>
       </c>
       <c r="R2" t="n">
-        <v>34008183.89643426</v>
+        <v>1144688.759405845</v>
       </c>
       <c r="S2" t="n">
-        <v>12372202.16049731</v>
+        <v>1119753.232181116</v>
       </c>
       <c r="T2" t="n">
-        <v>2598211.657641087</v>
+        <v>1057611.072803396</v>
       </c>
       <c r="U2" t="n">
-        <v>2592103.308415207</v>
+        <v>943247.9900496848</v>
       </c>
       <c r="V2" t="n">
-        <v>-473266.9418965442</v>
+        <v>779970.6913463097</v>
       </c>
       <c r="W2" t="n">
-        <v>656141.5253995334</v>
+        <v>597318.8329892703</v>
       </c>
       <c r="X2" t="n">
-        <v>113906.3168836146</v>
+        <v>435716.6116627114</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>302670.0060496631</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>219216.3627527411</v>
       </c>
       <c r="AA2" t="n">
-        <v>741134.9994473258</v>
+        <v>156555.0560686376</v>
       </c>
       <c r="AB2" t="n">
-        <v>654150.1402929267</v>
+        <v>6280.99246270329</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>23293.56538121515</v>
       </c>
     </row>
     <row r="3">
@@ -751,85 +1893,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.221007683411075e-253</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.838237932817974e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.29163463852787</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>55258.60886231924</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2869.419753775163</v>
       </c>
       <c r="G3" t="n">
-        <v>6037.761159384903</v>
+        <v>58658.33314042509</v>
       </c>
       <c r="H3" t="n">
-        <v>19975051.93628713</v>
+        <v>61800.34178207365</v>
       </c>
       <c r="I3" t="n">
-        <v>94249877.24532302</v>
+        <v>55752.81315824115</v>
       </c>
       <c r="J3" t="n">
-        <v>134151052.7640441</v>
+        <v>44047.17770043293</v>
       </c>
       <c r="K3" t="n">
-        <v>200139102.6777374</v>
+        <v>27246.29610894384</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>293190.9011003975</v>
       </c>
       <c r="M3" t="n">
-        <v>568853.0329140772</v>
+        <v>604125.90734503</v>
       </c>
       <c r="N3" t="n">
-        <v>1328405.055961495</v>
+        <v>629864.5128796371</v>
       </c>
       <c r="O3" t="n">
-        <v>-485473.8349927508</v>
+        <v>67579.93844402452</v>
       </c>
       <c r="P3" t="n">
-        <v>-485473.8349927508</v>
+        <v>161944.0486804075</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5.967187760719557e-07</v>
+        <v>24388.27447018764</v>
       </c>
       <c r="R3" t="n">
-        <v>25506137.9223257</v>
+        <v>858516.5695543835</v>
       </c>
       <c r="S3" t="n">
-        <v>9279151.620372979</v>
+        <v>839814.9241358365</v>
       </c>
       <c r="T3" t="n">
-        <v>1948658.743230819</v>
+        <v>793208.3046025471</v>
       </c>
       <c r="U3" t="n">
-        <v>1944077.481311405</v>
+        <v>707435.9925372637</v>
       </c>
       <c r="V3" t="n">
-        <v>-354950.2064224078</v>
+        <v>584978.0185097322</v>
       </c>
       <c r="W3" t="n">
-        <v>492106.1440496501</v>
+        <v>447989.1247419527</v>
       </c>
       <c r="X3" t="n">
-        <v>85429.73766271095</v>
+        <v>326787.4587470335</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>227002.5045372473</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>164412.2720645558</v>
       </c>
       <c r="AA3" t="n">
-        <v>555851.2495854949</v>
+        <v>117416.2920514782</v>
       </c>
       <c r="AB3" t="n">
-        <v>490612.6052196953</v>
+        <v>4710.744347027467</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17470.17403591136</v>
       </c>
     </row>
     <row r="4">
@@ -839,85 +1984,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3.701679472351792e-253</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.063729888029957e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>32.15272439754646</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>92097.68143719876</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4782.36625629194</v>
       </c>
       <c r="G4" t="n">
-        <v>10062.93526564151</v>
+        <v>97763.88856737516</v>
       </c>
       <c r="H4" t="n">
-        <v>33291753.22714521</v>
+        <v>103000.5696367894</v>
       </c>
       <c r="I4" t="n">
-        <v>157083128.742205</v>
+        <v>92921.35526373528</v>
       </c>
       <c r="J4" t="n">
-        <v>223585087.9400736</v>
+        <v>73411.96283405491</v>
       </c>
       <c r="K4" t="n">
-        <v>333565171.1295624</v>
+        <v>45410.49351490642</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>488651.501833996</v>
       </c>
       <c r="M4" t="n">
-        <v>948088.3881901288</v>
+        <v>1006876.512241717</v>
       </c>
       <c r="N4" t="n">
-        <v>2214008.426602491</v>
+        <v>1049774.188132729</v>
       </c>
       <c r="O4" t="n">
-        <v>-809123.058321252</v>
+        <v>112633.2307400409</v>
       </c>
       <c r="P4" t="n">
-        <v>-809123.058321252</v>
+        <v>269906.7478006793</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9.945312934532595e-07</v>
+        <v>40647.12411697941</v>
       </c>
       <c r="R4" t="n">
-        <v>42510229.87054284</v>
+        <v>1430860.949257306</v>
       </c>
       <c r="S4" t="n">
-        <v>15465252.70062163</v>
+        <v>1399691.540226395</v>
       </c>
       <c r="T4" t="n">
-        <v>3247764.572051364</v>
+        <v>1322013.841004246</v>
       </c>
       <c r="U4" t="n">
-        <v>3240129.135519009</v>
+        <v>1179059.987562106</v>
       </c>
       <c r="V4" t="n">
-        <v>-591583.677370679</v>
+        <v>974963.3641828874</v>
       </c>
       <c r="W4" t="n">
-        <v>820176.9067494166</v>
+        <v>746648.541236588</v>
       </c>
       <c r="X4" t="n">
-        <v>142382.8961045183</v>
+        <v>544645.7645783894</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>378337.5075620789</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>274020.4534409264</v>
       </c>
       <c r="AA4" t="n">
-        <v>926418.7493091559</v>
+        <v>195693.8200857971</v>
       </c>
       <c r="AB4" t="n">
-        <v>817687.6753661591</v>
+        <v>7851.240578379113</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>29116.95672651895</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +2079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +2363,11 @@
           <t>W4_55</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W4_56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1223,169 +2376,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>694.1804983211468</v>
+        <v>1.712102228207177</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.02663240009757854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6470802716850583</v>
+        <v>0.1730907321221236</v>
       </c>
       <c r="E2" t="n">
-        <v>673.4369035897649</v>
+        <v>1.308991646979385</v>
       </c>
       <c r="F2" t="n">
-        <v>150.17701932121</v>
+        <v>19.3054449961648</v>
       </c>
       <c r="G2" t="n">
-        <v>220.4398498752324</v>
+        <v>37.1273287393979</v>
       </c>
       <c r="H2" t="n">
-        <v>1.941240815055176</v>
+        <v>20.76411275505512</v>
       </c>
       <c r="I2" t="n">
-        <v>26.31459771519239</v>
+        <v>36.44705558433424</v>
       </c>
       <c r="J2" t="n">
-        <v>481.8981933329449</v>
+        <v>38.73954443661239</v>
       </c>
       <c r="K2" t="n">
-        <v>497.8450862864025</v>
+        <v>29.65474432021944</v>
       </c>
       <c r="L2" t="n">
-        <v>22200.05810428777</v>
+        <v>220.8602274691037</v>
       </c>
       <c r="M2" t="n">
-        <v>2432.933301045837</v>
+        <v>110.6661679404566</v>
       </c>
       <c r="N2" t="n">
-        <v>6972.549307557573</v>
+        <v>84.26751702633439</v>
       </c>
       <c r="O2" t="n">
-        <v>166152.282348899</v>
+        <v>476.4253889527242</v>
       </c>
       <c r="P2" t="n">
-        <v>3006.30128461652</v>
+        <v>122.0392050637602</v>
       </c>
       <c r="Q2" t="n">
-        <v>-62.36287762214825</v>
+        <v>44.54751822187156</v>
       </c>
       <c r="R2" t="n">
-        <v>1562.411657347662</v>
+        <v>61.48568473338485</v>
       </c>
       <c r="S2" t="n">
-        <v>3566.549881928147</v>
+        <v>96.87653094177678</v>
       </c>
       <c r="T2" t="n">
-        <v>11587.43008423223</v>
+        <v>170.023422485811</v>
       </c>
       <c r="U2" t="n">
-        <v>600.620409614047</v>
+        <v>58.10342207944905</v>
       </c>
       <c r="V2" t="n">
-        <v>859.2413727363696</v>
+        <v>62.12133633247512</v>
       </c>
       <c r="W2" t="n">
-        <v>4038.349661667827</v>
+        <v>110.3120909420272</v>
       </c>
       <c r="X2" t="n">
-        <v>19180.85447793553</v>
+        <v>183.111293212282</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.64786696696228</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="Z2" t="n">
-        <v>177.7857775797725</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.764819586871</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1636.706425020572</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AC2" t="n">
-        <v>17815.95230463774</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AD2" t="n">
-        <v>37396.60469687509</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AE2" t="n">
-        <v>58149.94949934156</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AF2" t="n">
-        <v>72927.91952708436</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.255736113661817</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.523106210191608</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>5.93793954667424</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17800.64152331065</v>
+        <v>89.84121660535476</v>
       </c>
       <c r="AK2" t="n">
-        <v>73126.14890346905</v>
+        <v>273.1882108155688</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>9.984046652188692</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>10.86147555515232</v>
       </c>
       <c r="AN2" t="n">
-        <v>879.7178892259641</v>
+        <v>28.68457501359748</v>
       </c>
       <c r="AO2" t="n">
-        <v>45799.40536165007</v>
+        <v>174.2553430685716</v>
       </c>
       <c r="AP2" t="n">
-        <v>84963.82415825812</v>
+        <v>351.7296166358253</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-326.0594780434378</v>
+        <v>8.447499427362168</v>
       </c>
       <c r="AR2" t="n">
-        <v>1473.759615192843</v>
+        <v>29.08009175392408</v>
       </c>
       <c r="AS2" t="n">
-        <v>576.3339440499417</v>
+        <v>3.332278987476925</v>
       </c>
       <c r="AT2" t="n">
-        <v>409.5179922641012</v>
+        <v>8.647713795376124</v>
       </c>
       <c r="AU2" t="n">
-        <v>417.9550569316867</v>
+        <v>5.774051740010845</v>
       </c>
       <c r="AV2" t="n">
-        <v>652.5523082948639</v>
+        <v>13.80453832213143</v>
       </c>
       <c r="AW2" t="n">
-        <v>34.48212309834538</v>
+        <v>4.849075133593637</v>
       </c>
       <c r="AX2" t="n">
-        <v>89.69754251300037</v>
+        <v>6.982005625500064</v>
       </c>
       <c r="AY2" t="n">
-        <v>193.245135065096</v>
+        <v>10.19005993639254</v>
       </c>
       <c r="AZ2" t="n">
-        <v>226801.367300292</v>
+        <v>511.8375220660125</v>
       </c>
       <c r="BA2" t="n">
-        <v>-54869.76360780945</v>
+        <v>512.4534516954541</v>
       </c>
       <c r="BB2" t="n">
-        <v>82702.44240971419</v>
+        <v>510.1950430541682</v>
       </c>
       <c r="BC2" t="n">
-        <v>144569.0262898382</v>
+        <v>511.0676100292105</v>
       </c>
       <c r="BD2" t="n">
-        <v>94223.06584812369</v>
+        <v>512.1968143498535</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8.518685490662905</v>
       </c>
     </row>
     <row r="3">
@@ -1395,169 +2551,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.6353737408599</v>
+        <v>1.284076671155383</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0199743000731839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4853102037637939</v>
+        <v>0.1298180490915927</v>
       </c>
       <c r="E3" t="n">
-        <v>505.0776776923238</v>
+        <v>0.9817437352345388</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6327644909075</v>
+        <v>14.4790837471236</v>
       </c>
       <c r="G3" t="n">
-        <v>165.3298874064242</v>
+        <v>27.84549655454842</v>
       </c>
       <c r="H3" t="n">
-        <v>1.455930611291381</v>
+        <v>15.57308456629134</v>
       </c>
       <c r="I3" t="n">
-        <v>19.73594828639428</v>
+        <v>27.33529168825068</v>
       </c>
       <c r="J3" t="n">
-        <v>361.4236449997086</v>
+        <v>29.05465832745929</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3838147148018</v>
+        <v>22.24105824016458</v>
       </c>
       <c r="L3" t="n">
-        <v>16650.04357821583</v>
+        <v>165.6451706018278</v>
       </c>
       <c r="M3" t="n">
-        <v>1824.699975784377</v>
+        <v>82.99962595534245</v>
       </c>
       <c r="N3" t="n">
-        <v>5229.411980668179</v>
+        <v>63.2006377697508</v>
       </c>
       <c r="O3" t="n">
-        <v>124614.2117616741</v>
+        <v>357.3190417145431</v>
       </c>
       <c r="P3" t="n">
-        <v>2254.72596346239</v>
+        <v>91.52940379782015</v>
       </c>
       <c r="Q3" t="n">
-        <v>-46.77215821661122</v>
+        <v>33.41063866640367</v>
       </c>
       <c r="R3" t="n">
-        <v>1171.808743010746</v>
+        <v>46.11426355003864</v>
       </c>
       <c r="S3" t="n">
-        <v>2674.912411446109</v>
+        <v>72.6573982063326</v>
       </c>
       <c r="T3" t="n">
-        <v>8690.572563174177</v>
+        <v>127.5175668643583</v>
       </c>
       <c r="U3" t="n">
-        <v>450.4653072105356</v>
+        <v>43.57756655958678</v>
       </c>
       <c r="V3" t="n">
-        <v>644.4310295522771</v>
+        <v>46.59100224935634</v>
       </c>
       <c r="W3" t="n">
-        <v>3028.762246250871</v>
+        <v>82.73406820652042</v>
       </c>
       <c r="X3" t="n">
-        <v>14385.64085845166</v>
+        <v>137.3334699092116</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.23590022522168</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="Z3" t="n">
-        <v>133.3393331848293</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AA3" t="n">
-        <v>1217.823614690154</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1227.52981876543</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AC3" t="n">
-        <v>13361.96422847831</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AD3" t="n">
-        <v>28047.4535226563</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AE3" t="n">
-        <v>43612.46212450616</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AF3" t="n">
-        <v>54695.93964531325</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1.691802085246363</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.892329657643706</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4.45345466000568</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13350.48114248299</v>
+        <v>67.38091245401607</v>
       </c>
       <c r="AK3" t="n">
-        <v>54844.61167760176</v>
+        <v>204.8911581116767</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>7.488034989141517</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>8.146106666364238</v>
       </c>
       <c r="AN3" t="n">
-        <v>659.7884169194732</v>
+        <v>21.51343126019811</v>
       </c>
       <c r="AO3" t="n">
-        <v>34349.55402123756</v>
+        <v>130.6915073014287</v>
       </c>
       <c r="AP3" t="n">
-        <v>63722.86811869348</v>
+        <v>263.797212476869</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-244.5446085325796</v>
+        <v>6.335624570521626</v>
       </c>
       <c r="AR3" t="n">
-        <v>1105.319711394629</v>
+        <v>21.81006881544306</v>
       </c>
       <c r="AS3" t="n">
-        <v>432.2504580374562</v>
+        <v>2.499209240607694</v>
       </c>
       <c r="AT3" t="n">
-        <v>307.1384941980763</v>
+        <v>6.485785346532094</v>
       </c>
       <c r="AU3" t="n">
-        <v>313.4662926987644</v>
+        <v>4.330538805008134</v>
       </c>
       <c r="AV3" t="n">
-        <v>489.4142312211468</v>
+        <v>10.35340374159857</v>
       </c>
       <c r="AW3" t="n">
-        <v>25.86159232375903</v>
+        <v>3.636806350195227</v>
       </c>
       <c r="AX3" t="n">
-        <v>67.27315688475025</v>
+        <v>5.236504219125049</v>
       </c>
       <c r="AY3" t="n">
-        <v>144.933851298822</v>
+        <v>7.642544952294409</v>
       </c>
       <c r="AZ3" t="n">
-        <v>170101.0254752191</v>
+        <v>383.8781415495094</v>
       </c>
       <c r="BA3" t="n">
-        <v>-41152.32270585696</v>
+        <v>384.3400887715907</v>
       </c>
       <c r="BB3" t="n">
-        <v>62026.8318072858</v>
+        <v>382.6462822906261</v>
       </c>
       <c r="BC3" t="n">
-        <v>108426.7697173786</v>
+        <v>383.3007075219078</v>
       </c>
       <c r="BD3" t="n">
-        <v>70667.29938609262</v>
+        <v>384.1476107623902</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>6.38901411799718</v>
       </c>
     </row>
     <row r="4">
@@ -1567,169 +2726,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>867.7256229014332</v>
+        <v>2.14012778525897</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.03329050012197315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8088503396063234</v>
+        <v>0.2163634151526544</v>
       </c>
       <c r="E4" t="n">
-        <v>841.7961294872067</v>
+        <v>1.636239558724231</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7212741515125</v>
+        <v>24.131806245206</v>
       </c>
       <c r="G4" t="n">
-        <v>275.5498123440404</v>
+        <v>46.40916092424737</v>
       </c>
       <c r="H4" t="n">
-        <v>2.426551018818969</v>
+        <v>25.95514094381889</v>
       </c>
       <c r="I4" t="n">
-        <v>32.89324714399048</v>
+        <v>45.55881948041779</v>
       </c>
       <c r="J4" t="n">
-        <v>602.3727416661809</v>
+        <v>48.42443054576548</v>
       </c>
       <c r="K4" t="n">
-        <v>622.3063578580031</v>
+        <v>37.06843040027429</v>
       </c>
       <c r="L4" t="n">
-        <v>27750.07263035972</v>
+        <v>276.0752843363795</v>
       </c>
       <c r="M4" t="n">
-        <v>3041.166626307295</v>
+        <v>138.3327099255708</v>
       </c>
       <c r="N4" t="n">
-        <v>8715.686634446971</v>
+        <v>105.334396282918</v>
       </c>
       <c r="O4" t="n">
-        <v>207690.3529361238</v>
+        <v>595.531736190905</v>
       </c>
       <c r="P4" t="n">
-        <v>3757.876605770649</v>
+        <v>152.5490063297002</v>
       </c>
       <c r="Q4" t="n">
-        <v>-77.95359702768562</v>
+        <v>55.68439777733943</v>
       </c>
       <c r="R4" t="n">
-        <v>1953.014571684578</v>
+        <v>76.85710591673104</v>
       </c>
       <c r="S4" t="n">
-        <v>4458.187352410181</v>
+        <v>121.0956636772209</v>
       </c>
       <c r="T4" t="n">
-        <v>14484.28760529028</v>
+        <v>212.5292781072637</v>
       </c>
       <c r="U4" t="n">
-        <v>750.775512017558</v>
+        <v>72.62927759931129</v>
       </c>
       <c r="V4" t="n">
-        <v>1074.051715920464</v>
+        <v>77.65167041559387</v>
       </c>
       <c r="W4" t="n">
-        <v>5047.937077084784</v>
+        <v>137.890113677534</v>
       </c>
       <c r="X4" t="n">
-        <v>23976.06809741942</v>
+        <v>228.8891165153526</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.0598337087028</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="Z4" t="n">
-        <v>222.2322219747156</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AA4" t="n">
-        <v>2029.70602448359</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AB4" t="n">
-        <v>2045.883031275717</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AC4" t="n">
-        <v>22269.94038079718</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AD4" t="n">
-        <v>46745.75587109385</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AE4" t="n">
-        <v>72687.43687417694</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AF4" t="n">
-        <v>91159.89940885545</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.81967014207727</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.15388276273951</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>7.422424433342799</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22250.80190413831</v>
+        <v>112.3015207566934</v>
       </c>
       <c r="AK4" t="n">
-        <v>91407.68612933635</v>
+        <v>341.485263519461</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>12.48005831523586</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>13.57684444394039</v>
       </c>
       <c r="AN4" t="n">
-        <v>1099.647361532456</v>
+        <v>35.85571876699684</v>
       </c>
       <c r="AO4" t="n">
-        <v>57249.25670206259</v>
+        <v>217.8191788357144</v>
       </c>
       <c r="AP4" t="n">
-        <v>106204.7801978225</v>
+        <v>439.6620207947815</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-407.5743475542979</v>
+        <v>10.55937428420271</v>
       </c>
       <c r="AR4" t="n">
-        <v>1842.199518991052</v>
+        <v>36.35011469240509</v>
       </c>
       <c r="AS4" t="n">
-        <v>720.417430062427</v>
+        <v>4.165348734346155</v>
       </c>
       <c r="AT4" t="n">
-        <v>511.897490330127</v>
+        <v>10.80964224422015</v>
       </c>
       <c r="AU4" t="n">
-        <v>522.4438211646075</v>
+        <v>7.217564675013554</v>
       </c>
       <c r="AV4" t="n">
-        <v>815.69038536858</v>
+        <v>17.25567290266428</v>
       </c>
       <c r="AW4" t="n">
-        <v>43.10265387293174</v>
+        <v>6.061343916992045</v>
       </c>
       <c r="AX4" t="n">
-        <v>112.1219281412504</v>
+        <v>8.727507031875078</v>
       </c>
       <c r="AY4" t="n">
-        <v>241.55641883137</v>
+        <v>12.73757492049068</v>
       </c>
       <c r="AZ4" t="n">
-        <v>283501.7091253652</v>
+        <v>639.7969025825155</v>
       </c>
       <c r="BA4" t="n">
-        <v>-68587.20450976166</v>
+        <v>640.5668146193175</v>
       </c>
       <c r="BB4" t="n">
-        <v>103378.0530121429</v>
+        <v>637.7438038177102</v>
       </c>
       <c r="BC4" t="n">
-        <v>180711.282862298</v>
+        <v>638.834512536513</v>
       </c>
       <c r="BD4" t="n">
-        <v>117778.8323101546</v>
+        <v>640.2460179373168</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>10.64835686332863</v>
       </c>
     </row>
   </sheetData>
